--- a/Services/TenantManagement/SeedData/teacher_upload.xlsx
+++ b/Services/TenantManagement/SeedData/teacher_upload.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Danh sách giảng viên</t>
   </si>
@@ -51,21 +51,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Long Van</t>
-  </si>
-  <si>
-    <t>KH001</t>
-  </si>
-  <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>vunt@gmail.com</t>
-  </si>
-  <si>
-    <t>03333343</t>
   </si>
 </sst>
 </file>
@@ -736,9 +721,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,7 +1259,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1325,131 +1307,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>123133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="4:6">
+      <c r="D4" s="5"/>
+      <c r="E4"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" s="5"/>
-      <c r="E5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" s="5"/>
-      <c r="E6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="5"/>
-      <c r="E7"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="5"/>
-      <c r="E8"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="5"/>
-      <c r="E9"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="5"/>
-      <c r="E10"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="5"/>
-      <c r="E11"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="5"/>
-      <c r="E12"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="5"/>
-      <c r="E13"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="5"/>
-      <c r="E14"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" s="5"/>
-      <c r="E15"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="5"/>
-      <c r="E16"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="5"/>
-      <c r="E17"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="5"/>
-      <c r="E18"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="5"/>
-      <c r="E19"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="5"/>
-      <c r="E20"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="5"/>
-      <c r="E21"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="5"/>
-      <c r="E22"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="5"/>
-      <c r="E23"/>
       <c r="F23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="vunt@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Services/TenantManagement/SeedData/teacher_upload.xlsx
+++ b/Services/TenantManagement/SeedData/teacher_upload.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Danh sách giảng viên</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Mã khoa</t>
-  </si>
-  <si>
-    <t>Khoa</t>
   </si>
   <si>
     <t>Email</t>
@@ -1256,24 +1253,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="26.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="25.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,9 +1278,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1303,94 +1298,90 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6">
+    </row>
+    <row r="4" spans="4:5">
       <c r="D4" s="5"/>
-      <c r="E4"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="4:6">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="4:5">
       <c r="D5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="4:6">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="4:5">
       <c r="D6" s="5"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="4:6">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="4:6">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="4:5">
       <c r="D8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="4:6">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="4:5">
       <c r="D9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="4:6">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="4:5">
       <c r="D10" s="5"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="4:6">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="4:5">
       <c r="D11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="4:6">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="4:5">
       <c r="D12" s="5"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="4:6">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="4:5">
       <c r="D13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="4:6">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="4:5">
       <c r="D14" s="5"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="4:6">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="4:5">
       <c r="D15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="4:6">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="4:5">
       <c r="D16" s="5"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="4:6">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="5"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="4:6">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18" s="5"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="4:6">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="4:6">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="4:6">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="4:5">
       <c r="D21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="4:6">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="4:6">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Services/TenantManagement/SeedData/teacher_upload.xlsx
+++ b/Services/TenantManagement/SeedData/teacher_upload.xlsx
@@ -1256,14 +1256,14 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
